--- a/Inner_Space/Digital_circuits_and_microprocessors/JK_counter/JK_COUNTER.xlsx
+++ b/Inner_Space/Digital_circuits_and_microprocessors/JK_counter/JK_COUNTER.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18490" windowHeight="8970"/>
+    <workbookView windowWidth="12040" windowHeight="6110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="18">
   <si>
     <t>状态表</t>
   </si>
@@ -40,10 +40,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Q</t>
     </r>
@@ -51,10 +50,9 @@
       <rPr>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>2</t>
     </r>
@@ -63,10 +61,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Q</t>
     </r>
@@ -74,10 +71,9 @@
       <rPr>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
@@ -86,10 +82,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Q</t>
     </r>
@@ -98,10 +93,9 @@
         <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>0</t>
     </r>
@@ -110,10 +104,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Q</t>
     </r>
@@ -122,10 +115,9 @@
         <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>2</t>
     </r>
@@ -134,10 +126,9 @@
         <b/>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>n+1</t>
     </r>
@@ -146,10 +137,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Q</t>
     </r>
@@ -158,10 +148,9 @@
         <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
@@ -170,10 +159,9 @@
         <b/>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>n+1</t>
     </r>
@@ -182,10 +170,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Q</t>
     </r>
@@ -194,10 +181,9 @@
         <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>0</t>
     </r>
@@ -205,10 +191,9 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>n+1</t>
     </r>
@@ -217,16 +202,137 @@
     <t>Z</t>
   </si>
   <si>
-    <t>000</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">     MQ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Q</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
   </si>
   <si>
-    <t>101</t>
+    <t>00</t>
+  </si>
+  <si>
+    <t>01</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n+1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">$Q_{2}^{n+1}=Q_1 \cdot Q_0 \cdot \overline{Q_{2}} +\overline{Q_{0}} \cdot \overline{Q_1} \cdot Q_2 \cdot M$
+$Q_{1}^{n+1}=\overline{Q_1} \cdot Q_0 \cdot \overline{Q_2}+Q_1 \cdot \overline{Q_0} \cdot \overline{Q_2} $
+$Q_{0}^{n+1}=\overline{Q_0} \cdot \overline{Q_{2}} +\overline{Q_{0}} \cdot \overline{Q_1} \cdot Q_2 \cdot M$
+$Z=\overline{Q_{0}} \cdot \overline{Q_1} \cdot Q_2 \cdot \overline{M} +Q_{0} \cdot \overline{Q_1} \cdot Q_2 \cdot M$
+</t>
   </si>
 </sst>
 </file>
@@ -239,7 +345,23 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="28">
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,41 +514,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <vertAlign val="subscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <vertAlign val="subscript"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <vertAlign val="superscript"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,90 +566,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFACB9CA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4874CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -632,7 +781,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -663,6 +812,62 @@
         <color auto="1"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="medium">
+        <color auto="1"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -767,31 +972,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -800,141 +993,198 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -996,6 +1246,101 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>75565</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="276225"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3218815" y="5815330"/>
+          <a:ext cx="309880" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>176530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>622935</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6350" y="5866130"/>
+          <a:ext cx="3131185" cy="1470660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1248,13 +1593,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -1411,16 +1756,16 @@
       <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1434,7 +1779,7 @@
       <c r="C8" s="3">
         <v>0</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="6">
         <v>0</v>
       </c>
       <c r="E8" s="4">
@@ -1460,7 +1805,7 @@
       <c r="C9" s="3">
         <v>0</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>1</v>
       </c>
       <c r="E9" s="4">
@@ -1486,7 +1831,7 @@
       <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>0</v>
       </c>
       <c r="E10" s="4">
@@ -1512,7 +1857,7 @@
       <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>1</v>
       </c>
       <c r="E11" s="4">
@@ -1541,16 +1886,16 @@
       <c r="D12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1580,41 +1925,594 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="5">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="7" t="s">
+    <row r="15" ht="33.75" spans="1:11">
+      <c r="A15" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="7" t="s">
+      <c r="B15" s="20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="7" t="s">
+      <c r="C15" s="20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="7" t="s">
+      <c r="D15" s="21" t="s">
         <v>12</v>
       </c>
+      <c r="E15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="10">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="14">
+        <v>1</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="11">
+        <v>10</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>10</v>
+      </c>
+      <c r="H19" s="14">
+        <v>1</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="H20" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="23" ht="33.75" spans="1:11">
+      <c r="A23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="14">
+        <v>1</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+      <c r="E24" s="14">
+        <v>1</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0</v>
+      </c>
+      <c r="I24" s="12">
+        <v>1</v>
+      </c>
+      <c r="J24" s="10">
+        <v>0</v>
+      </c>
+      <c r="K24" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="12">
+        <v>1</v>
+      </c>
+      <c r="K25" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="11">
+        <v>10</v>
+      </c>
+      <c r="B27" s="14">
+        <v>1</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="14">
+        <v>1</v>
+      </c>
+      <c r="G27" s="11">
+        <v>10</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="H28" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="7:21">
+      <c r="G30" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+    </row>
+    <row r="31" spans="7:21">
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+    </row>
+    <row r="32" spans="7:21">
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+    </row>
+    <row r="33" spans="7:21">
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+    </row>
+    <row r="34" spans="7:21">
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+    </row>
+    <row r="35" spans="7:21">
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+    </row>
+    <row r="36" spans="7:21">
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+    </row>
+    <row r="37" spans="7:21">
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+    </row>
+    <row r="38" spans="7:21">
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+    </row>
+    <row r="39" spans="7:21">
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+    </row>
+    <row r="40" spans="7:21">
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+    </row>
+    <row r="41" spans="7:21">
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+    </row>
+    <row r="42" spans="7:21">
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="H28:I29"/>
+    <mergeCell ref="G30:U42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1630,7 +2528,6 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1647,7 +2544,6 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>